--- a/XlsSerializer.Examples.Web/data/Xlsx/SimpleCollectionSerialization.xlsx
+++ b/XlsSerializer.Examples.Web/data/Xlsx/SimpleCollectionSerialization.xlsx
@@ -14,304 +14,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>dc60a92e-c647-4162-a28a-d1c091afac43</t>
-  </si>
-  <si>
-    <t>632522ce-51aa-41bd-81fc-76ee3f4565f2</t>
-  </si>
-  <si>
-    <t>63b97dca-a7f2-4be1-a1b7-9d84aa107079</t>
-  </si>
-  <si>
-    <t>d4d3213c-1ed9-4dff-b6c2-d42165a795c8</t>
-  </si>
-  <si>
-    <t>34766970-8c5d-4d22-b6ec-78e091bc24ac</t>
-  </si>
-  <si>
-    <t>e3570380-a6d6-4b14-aabd-466aa754ff4f</t>
-  </si>
-  <si>
-    <t>3bf6f235-e92f-4288-b4d8-9cfe5723f348</t>
-  </si>
-  <si>
-    <t>e3e0f59f-c630-4931-8133-7ec851cef84b</t>
-  </si>
-  <si>
-    <t>17aa8a93-9a6c-45e8-b908-ec5eb76e1187</t>
-  </si>
-  <si>
-    <t>3a46f2bd-6588-48c2-820d-c4a0c726e911</t>
-  </si>
-  <si>
-    <t>66e225b0-8fcb-4035-888b-e91cdef7843b</t>
-  </si>
-  <si>
-    <t>89f3adf9-f20b-4b80-8b9b-fc4c5c1c470f</t>
-  </si>
-  <si>
-    <t>8f0f719b-83bd-4dc0-9063-39a13fb98c7c</t>
-  </si>
-  <si>
-    <t>086165aa-9efe-4e54-b2e4-4ab4ecdff610</t>
-  </si>
-  <si>
-    <t>b0be9520-b878-469d-881c-7d0a95fadf22</t>
-  </si>
-  <si>
-    <t>bf12e4b6-b059-45c2-9ddf-e7adb60da245</t>
-  </si>
-  <si>
-    <t>90865187-4c39-4ee9-bd17-29a4e341f473</t>
-  </si>
-  <si>
-    <t>528cc0e4-aae6-41ae-b4d3-760bccc80cfe</t>
-  </si>
-  <si>
-    <t>e8c5f813-7f30-425c-bbd1-fb3d425a68c1</t>
-  </si>
-  <si>
-    <t>a35491bf-eb26-49f4-82f9-e8d5acc88496</t>
-  </si>
-  <si>
-    <t>45fa6c83-1a76-4f08-9267-90e04139bd84</t>
-  </si>
-  <si>
-    <t>cd9dc208-b0e6-416e-a7b0-125318e5fd52</t>
-  </si>
-  <si>
-    <t>9470b4ec-0580-4dff-8337-ad9d7bf726db</t>
-  </si>
-  <si>
-    <t>6bdc60ee-3d5e-46da-83a3-b98a75c74106</t>
-  </si>
-  <si>
-    <t>e41477ec-dc34-45c1-a120-c29afc645968</t>
-  </si>
-  <si>
-    <t>ad2de95d-fb07-4b19-adfd-b156b667684e</t>
-  </si>
-  <si>
-    <t>b66d7f9c-3bb5-469e-b415-22535436eb6b</t>
-  </si>
-  <si>
-    <t>5589bf65-81a5-4f4b-986b-87a8e2224bc6</t>
-  </si>
-  <si>
-    <t>a4f80919-32d4-48b8-ba00-3e51b552628f</t>
-  </si>
-  <si>
-    <t>5698e881-811b-47f9-af1a-3c41fa28f6b8</t>
-  </si>
-  <si>
-    <t>9e267a3a-845b-4035-bfd8-c83a4f41d17f</t>
-  </si>
-  <si>
-    <t>04130313-2e1a-460a-ac65-4ea9b689ae97</t>
-  </si>
-  <si>
-    <t>6d3be7c5-cada-4068-a081-54c42d8ba99b</t>
-  </si>
-  <si>
-    <t>d9f440c9-449f-4629-b869-036fa8df1ace</t>
-  </si>
-  <si>
-    <t>e55b80a4-4d17-49b1-9f82-405f3c1aabb0</t>
-  </si>
-  <si>
-    <t>aa8d3fc1-d7a8-4013-9afa-3af599f115a2</t>
-  </si>
-  <si>
-    <t>c4dcb9aa-efbe-4f8b-9272-03b48ab600f4</t>
-  </si>
-  <si>
-    <t>228cd049-12ab-4e3e-bcd6-c7f96f7063b6</t>
-  </si>
-  <si>
-    <t>d35a7066-6529-4069-901f-3223079bec0a</t>
-  </si>
-  <si>
-    <t>151c5b9b-725f-486f-8dbf-11b0e6ed45e7</t>
-  </si>
-  <si>
-    <t>3dfdd011-fc65-4cf8-9e5f-9ad4c04dde33</t>
-  </si>
-  <si>
-    <t>c994f779-54ad-4d72-802d-b778a4160ad1</t>
-  </si>
-  <si>
-    <t>84f3f4b1-7519-4c04-8dbd-4f9460d04323</t>
-  </si>
-  <si>
-    <t>ba466c38-dc00-4e1e-ae79-c9d7beb7114b</t>
-  </si>
-  <si>
-    <t>ae272e5f-8554-40e8-8cdf-0ad4249882bc</t>
-  </si>
-  <si>
-    <t>4455a94d-d98c-4b5e-a724-00a3d1f5cd3a</t>
-  </si>
-  <si>
-    <t>57b4998f-c104-4712-bc75-03f935b32f63</t>
-  </si>
-  <si>
-    <t>1b8783dd-d8a5-477b-bb93-c10fa6b2aa75</t>
-  </si>
-  <si>
-    <t>df350569-8902-401e-af97-7785c31e30e9</t>
-  </si>
-  <si>
-    <t>f56b1af9-fcbe-4390-a33f-69cdaefca0e2</t>
-  </si>
-  <si>
-    <t>9c93c1a9-5f6b-4d81-ae1b-5378329f5d4a</t>
-  </si>
-  <si>
-    <t>d7e0be7d-7055-4917-96c7-19b729071f39</t>
-  </si>
-  <si>
-    <t>1c0c611e-a44e-46b6-9e00-452b249a332c</t>
-  </si>
-  <si>
-    <t>e96b7c0a-5d01-4977-a5dd-23935916715b</t>
-  </si>
-  <si>
-    <t>f97eee0d-dfc4-4fbf-a171-256ede53476f</t>
-  </si>
-  <si>
-    <t>e50194ff-f0a5-45dd-86e9-f57bf1845709</t>
-  </si>
-  <si>
-    <t>157e0eab-6e1f-47c6-b105-a235ed3ca821</t>
-  </si>
-  <si>
-    <t>d2fa357f-3f7d-4e64-95fb-a64b7038f5e0</t>
-  </si>
-  <si>
-    <t>c4746802-a5d8-4f71-a08b-eb3e15775faa</t>
-  </si>
-  <si>
-    <t>8dec65ab-519d-4234-9999-8a73cf7f456f</t>
-  </si>
-  <si>
-    <t>4f560e86-cd48-4386-a8ac-4cd901d912d5</t>
-  </si>
-  <si>
-    <t>d842310a-5239-4c06-a6b8-54dc31a79a47</t>
-  </si>
-  <si>
-    <t>5f4a9bae-ac31-450a-b3dc-f180c1147ffb</t>
-  </si>
-  <si>
-    <t>f875d4b7-2477-4ad7-b656-952fab8072b0</t>
-  </si>
-  <si>
-    <t>728c7d15-7840-42f2-8330-e9d331f6c414</t>
-  </si>
-  <si>
-    <t>2b63daab-93a5-48b0-b899-a11f073d68f7</t>
-  </si>
-  <si>
-    <t>1b3a571f-c2b4-44dc-858b-8e57cc7ef7af</t>
-  </si>
-  <si>
-    <t>ccd8b5f3-01bf-41b2-af41-c0d654686137</t>
-  </si>
-  <si>
-    <t>8c692971-9afa-4a90-a0fb-905ff51e1fd7</t>
-  </si>
-  <si>
-    <t>b1f6c273-1384-4245-b34d-053a663392f9</t>
-  </si>
-  <si>
-    <t>e8370c48-9fdc-49a6-8e29-87e2e634c2d0</t>
-  </si>
-  <si>
-    <t>c9f247e3-6bd3-4833-89c6-d5439e007329</t>
-  </si>
-  <si>
-    <t>ec193f22-00e2-4cfd-976e-a78193bff2a1</t>
-  </si>
-  <si>
-    <t>b71c1bba-ce55-4d16-8e38-f274f146f090</t>
-  </si>
-  <si>
-    <t>7ee6bf59-46a7-4c0e-aedb-992dad2e9eba</t>
-  </si>
-  <si>
-    <t>b16af80a-e0a8-4dc0-99f8-c81f664aed54</t>
-  </si>
-  <si>
-    <t>9b215976-3141-4918-aa65-4b055006f1f6</t>
-  </si>
-  <si>
-    <t>772597d6-0b93-4295-be28-6743c162e726</t>
-  </si>
-  <si>
-    <t>7f104608-80b6-4f8c-bf29-9a246bd85a3d</t>
-  </si>
-  <si>
-    <t>bdc47cb0-f391-4a34-ab88-c49d961cdb0f</t>
-  </si>
-  <si>
-    <t>13e5a76d-e58c-4924-ab8e-4287d8193d37</t>
-  </si>
-  <si>
-    <t>dc0b2b6a-d895-436d-afca-6108886603c9</t>
-  </si>
-  <si>
-    <t>0ed5fc6b-0870-43e9-96eb-e7fb9b96bb50</t>
-  </si>
-  <si>
-    <t>00844940-0462-4887-912c-4aeb15f8f38f</t>
-  </si>
-  <si>
-    <t>09f47112-0e13-4928-98e8-d4c0ead47017</t>
-  </si>
-  <si>
-    <t>ba924c04-940e-46d0-81c9-c965a163d014</t>
-  </si>
-  <si>
-    <t>d3326df2-cffd-4708-badb-d19c4d30e677</t>
-  </si>
-  <si>
-    <t>c6ee1f40-5683-4f0a-892d-9e79b7f0044e</t>
-  </si>
-  <si>
-    <t>327ca7c4-db8e-4903-b2a7-4979e64c0891</t>
-  </si>
-  <si>
-    <t>2fc7727e-2f01-4fb2-8eef-689e68a45644</t>
-  </si>
-  <si>
-    <t>f0354ad3-4a95-441d-8cec-17c475201d8a</t>
-  </si>
-  <si>
-    <t>689cebeb-9655-49e9-a831-abd9213e21cc</t>
-  </si>
-  <si>
-    <t>67f61d3a-13a1-4647-8f79-38030e10ceff</t>
-  </si>
-  <si>
-    <t>1c8bb703-779a-4595-a498-278ce666e251</t>
-  </si>
-  <si>
-    <t>59f93330-3f81-48c3-8ce3-0c1d44820bb4</t>
-  </si>
-  <si>
-    <t>c984db16-8ceb-46e3-8d13-218660cb7e5f</t>
-  </si>
-  <si>
-    <t>d8946b6b-9259-4c5b-b3a8-aaac2438ff9f</t>
-  </si>
-  <si>
-    <t>c691649b-c60c-48e4-950a-a289d0bbba2c</t>
-  </si>
-  <si>
-    <t>ed370ce3-1fa5-4913-88f8-75964ef7eb62</t>
-  </si>
-  <si>
-    <t>b066015e-fcce-42e9-b4eb-af4e33df4744</t>
+    <t>0320e3bd-0310-4136-ac15-1c82d6cef7de</t>
+  </si>
+  <si>
+    <t>0bbd4bb9-246a-454c-ab77-652a3f623054</t>
+  </si>
+  <si>
+    <t>04078515-2632-4c85-9b01-3d981417c335</t>
+  </si>
+  <si>
+    <t>0ff3fc93-2179-4ef6-8866-8f0da5d6a4c4</t>
+  </si>
+  <si>
+    <t>5fa56492-80d0-4b46-8288-7704e4e04e80</t>
+  </si>
+  <si>
+    <t>7e57dc90-92e7-4f07-9d78-f799780441d0</t>
+  </si>
+  <si>
+    <t>d6a015fe-fccd-4526-929b-a31f266c736d</t>
+  </si>
+  <si>
+    <t>e1f3b9c2-74c3-42d6-b461-e9158ecc1da7</t>
+  </si>
+  <si>
+    <t>8a928033-8c41-4a6a-8f9e-39709008ed4f</t>
+  </si>
+  <si>
+    <t>a5d46581-2099-4101-92a0-08e8e9f9c00a</t>
+  </si>
+  <si>
+    <t>cca4d0c4-61e0-4ab0-9c7a-29c785864c2c</t>
+  </si>
+  <si>
+    <t>7e8b757d-26f6-4b80-a0eb-5e0e367eb956</t>
+  </si>
+  <si>
+    <t>16be8f2a-fea7-4399-a072-f14b95e5bbcb</t>
+  </si>
+  <si>
+    <t>64ffae06-b5be-4fe6-8489-666bc7d69c2d</t>
+  </si>
+  <si>
+    <t>c78d95d4-1924-4640-b72d-d79992cfd745</t>
+  </si>
+  <si>
+    <t>418c659b-74b4-4d63-aa53-91a4a0d75345</t>
+  </si>
+  <si>
+    <t>0ebd5dbe-30d2-4325-99fb-adea0f8387a0</t>
+  </si>
+  <si>
+    <t>82cded67-00e2-4e43-abf5-804fe7e94d00</t>
+  </si>
+  <si>
+    <t>58b899cf-2b25-42ed-96b2-6844ee5a6b1e</t>
+  </si>
+  <si>
+    <t>ec973301-2ec7-4649-b563-47ed63525557</t>
+  </si>
+  <si>
+    <t>c7c52297-f2fa-46ca-9fac-78b254513735</t>
+  </si>
+  <si>
+    <t>6d5494bc-c3d0-42f1-af24-f4311134de94</t>
+  </si>
+  <si>
+    <t>970a66e4-795e-4e77-9d56-f57f1fd52e04</t>
+  </si>
+  <si>
+    <t>f120f6fc-0d64-4bad-81ca-456dff1894b2</t>
+  </si>
+  <si>
+    <t>14b49a5d-feab-4e8d-9f35-e54ae532e597</t>
+  </si>
+  <si>
+    <t>eaf87922-0fc0-4165-a780-749fd0198129</t>
+  </si>
+  <si>
+    <t>6cc888ba-2fd1-4822-a07b-190cb53bb28d</t>
+  </si>
+  <si>
+    <t>b77e2b1f-718b-4d71-b8c0-0b2f5bcb2e93</t>
+  </si>
+  <si>
+    <t>d9ad6f39-6e3b-4e48-90fb-2382beffcbb5</t>
+  </si>
+  <si>
+    <t>dc828e18-3dc6-4050-a772-ec90a3967768</t>
+  </si>
+  <si>
+    <t>fababdfe-d7c4-41d9-9193-f51615ed0c0e</t>
+  </si>
+  <si>
+    <t>613cfb67-8a9c-4770-876b-22a293cc1041</t>
+  </si>
+  <si>
+    <t>29ae0e74-4c09-4916-a816-423376dee1d8</t>
+  </si>
+  <si>
+    <t>320d768d-2909-4134-ab07-3754c6103544</t>
+  </si>
+  <si>
+    <t>7d75b805-7a32-4780-bd6d-c4e3d390993a</t>
+  </si>
+  <si>
+    <t>2a678c0f-9dff-4d7d-a0a5-c521b197f341</t>
+  </si>
+  <si>
+    <t>2700a877-a19d-4b02-b4ce-8977474c82e3</t>
+  </si>
+  <si>
+    <t>6fe8db22-7a73-4c66-877c-3dcd336e8411</t>
+  </si>
+  <si>
+    <t>86e9956c-70d3-4f7a-87b0-2f86bce3a6c7</t>
+  </si>
+  <si>
+    <t>18edd5b6-07d1-4c8d-a3ef-b6e9f9e186c4</t>
+  </si>
+  <si>
+    <t>cf52728a-7a45-4384-9575-3ad74167d06f</t>
+  </si>
+  <si>
+    <t>0239f71b-815b-4be5-89cc-c776fa1f5a4a</t>
+  </si>
+  <si>
+    <t>14444cda-8a58-4f83-b832-0cd1152720bf</t>
+  </si>
+  <si>
+    <t>b4f07440-802d-45a9-b33e-fc0fa4b764ad</t>
+  </si>
+  <si>
+    <t>5337ebe5-0b08-410e-a707-3736eb864a1b</t>
+  </si>
+  <si>
+    <t>24eeb654-bd9a-4707-89b7-e8fea9d4ed57</t>
+  </si>
+  <si>
+    <t>01197368-7977-4eed-ac6d-30a3e346fa1f</t>
+  </si>
+  <si>
+    <t>b34231f2-90bf-404e-a964-3bcbd77f7992</t>
+  </si>
+  <si>
+    <t>311f3519-27be-4aab-8081-6ffb86c3b8d9</t>
+  </si>
+  <si>
+    <t>a2a18668-ca28-474e-b606-32089fbb6d57</t>
+  </si>
+  <si>
+    <t>9c1a004f-dc44-4787-b5cf-fb25b1f7bc82</t>
+  </si>
+  <si>
+    <t>5875c8f3-c3eb-4cc2-8fda-55425fc842ea</t>
+  </si>
+  <si>
+    <t>b7864796-c583-4734-a978-fc957aaee8a7</t>
+  </si>
+  <si>
+    <t>a418ace6-aa8d-47e1-a440-d16657285163</t>
+  </si>
+  <si>
+    <t>0ddf598d-1a0b-4b76-9982-48da8b21f20e</t>
+  </si>
+  <si>
+    <t>90207833-f446-47be-bb19-9706f09ab414</t>
+  </si>
+  <si>
+    <t>904f7a74-52d7-433f-bcf6-2a95fb58f6e6</t>
+  </si>
+  <si>
+    <t>68f42e84-ff2d-479e-bfa4-b20649330a1c</t>
+  </si>
+  <si>
+    <t>b783c538-08c3-429e-90ca-30a3b26f9dd8</t>
+  </si>
+  <si>
+    <t>e9d953cd-cd21-4509-89f3-274cfae8069c</t>
+  </si>
+  <si>
+    <t>96d7e1d3-5cf1-4093-98c9-1bacb3d3e51e</t>
+  </si>
+  <si>
+    <t>5330b13d-564d-4de1-850e-8e2ac23f6f13</t>
+  </si>
+  <si>
+    <t>dc22bcfb-e4ac-4281-b73e-0601c2d254fa</t>
+  </si>
+  <si>
+    <t>6c09661e-13e5-4113-aee6-b77e746e94da</t>
+  </si>
+  <si>
+    <t>91b67295-4539-4390-8fe1-bd516cb62355</t>
+  </si>
+  <si>
+    <t>64340ee0-0918-4497-9be4-09050cd9839f</t>
+  </si>
+  <si>
+    <t>e3047b54-2517-4b96-9810-5fd4c4d39c95</t>
+  </si>
+  <si>
+    <t>944e5ee7-62b0-482f-a558-17315f56ac8e</t>
+  </si>
+  <si>
+    <t>bb748a82-f52f-4fef-9b49-a594296ba3c7</t>
+  </si>
+  <si>
+    <t>648dbc43-9376-4583-a2c7-049037ae42e6</t>
+  </si>
+  <si>
+    <t>cbd24849-b1ad-42e6-8b4d-25ab207aa3b8</t>
+  </si>
+  <si>
+    <t>211fdaa2-e387-4476-b776-d4917d5276a3</t>
+  </si>
+  <si>
+    <t>f7d0848a-ceb4-4af4-9172-2eaa64697cbe</t>
+  </si>
+  <si>
+    <t>f53dc682-69d5-4a63-80db-8138c9ab86c7</t>
+  </si>
+  <si>
+    <t>02a3bb79-de7d-40c3-aeef-4035e0df4369</t>
+  </si>
+  <si>
+    <t>03b8736b-b388-4bed-9bc5-2b01ab00ad1e</t>
+  </si>
+  <si>
+    <t>8238abc2-2227-4666-a550-72fdb26ce660</t>
+  </si>
+  <si>
+    <t>07fbfb7c-04b5-45c8-8a48-5b1d8f59c317</t>
+  </si>
+  <si>
+    <t>f86d1cd6-df7b-4e1c-8742-e91eaddf4c83</t>
+  </si>
+  <si>
+    <t>2b621cab-14c1-43f5-b767-5ff3f497be40</t>
+  </si>
+  <si>
+    <t>5806af60-9037-43be-984a-bcb8abcc8bf6</t>
+  </si>
+  <si>
+    <t>35bf915e-7371-4c93-8de7-f7c1d14d261e</t>
+  </si>
+  <si>
+    <t>4c11bb15-c8c3-4993-afd4-f4f75beaa140</t>
+  </si>
+  <si>
+    <t>bb91d678-db2e-4269-ae3a-0864096ebdc1</t>
+  </si>
+  <si>
+    <t>9d19b10c-e8ea-4a5d-988a-efb2738be9be</t>
+  </si>
+  <si>
+    <t>cc3f685b-475e-4e7d-b298-69c267469387</t>
+  </si>
+  <si>
+    <t>f6973ae6-dd1c-4b96-8cb8-831c36a0413d</t>
+  </si>
+  <si>
+    <t>3a12d1af-274e-487c-b5bb-edd536ca203c</t>
+  </si>
+  <si>
+    <t>4a07f256-cffd-49ab-b8b9-d7098fff4320</t>
+  </si>
+  <si>
+    <t>cd023dee-41cc-4416-837f-4607193bb2d0</t>
+  </si>
+  <si>
+    <t>2fdd48b7-85ac-44e8-adb1-620df6238fc0</t>
+  </si>
+  <si>
+    <t>d260806e-b94c-4943-83a8-c728c2c42284</t>
+  </si>
+  <si>
+    <t>260f8f06-2f91-498c-866a-b1c121ee292f</t>
+  </si>
+  <si>
+    <t>74301428-dbca-4f65-a7b3-189fe2b236d6</t>
+  </si>
+  <si>
+    <t>77edf8f9-9924-411f-a573-0be86df8c3c0</t>
+  </si>
+  <si>
+    <t>23ff0511-b6d9-43ae-9a8f-46c651506348</t>
+  </si>
+  <si>
+    <t>12765a01-f3a6-4271-8468-a438f55ab2e3</t>
+  </si>
+  <si>
+    <t>a599a4cc-bd17-4136-b7a7-37a65edea0cb</t>
+  </si>
+  <si>
+    <t>313ef345-88d4-40f9-89d7-06112b32ce57</t>
+  </si>
+  <si>
+    <t>b5e58990-e5c7-482d-8181-084322343848</t>
   </si>
 </sst>
 </file>

--- a/XlsSerializer.Examples.Web/data/Xlsx/SimpleCollectionSerialization.xlsx
+++ b/XlsSerializer.Examples.Web/data/Xlsx/SimpleCollectionSerialization.xlsx
@@ -14,304 +14,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>0320e3bd-0310-4136-ac15-1c82d6cef7de</t>
-  </si>
-  <si>
-    <t>0bbd4bb9-246a-454c-ab77-652a3f623054</t>
-  </si>
-  <si>
-    <t>04078515-2632-4c85-9b01-3d981417c335</t>
-  </si>
-  <si>
-    <t>0ff3fc93-2179-4ef6-8866-8f0da5d6a4c4</t>
-  </si>
-  <si>
-    <t>5fa56492-80d0-4b46-8288-7704e4e04e80</t>
-  </si>
-  <si>
-    <t>7e57dc90-92e7-4f07-9d78-f799780441d0</t>
-  </si>
-  <si>
-    <t>d6a015fe-fccd-4526-929b-a31f266c736d</t>
-  </si>
-  <si>
-    <t>e1f3b9c2-74c3-42d6-b461-e9158ecc1da7</t>
-  </si>
-  <si>
-    <t>8a928033-8c41-4a6a-8f9e-39709008ed4f</t>
-  </si>
-  <si>
-    <t>a5d46581-2099-4101-92a0-08e8e9f9c00a</t>
-  </si>
-  <si>
-    <t>cca4d0c4-61e0-4ab0-9c7a-29c785864c2c</t>
-  </si>
-  <si>
-    <t>7e8b757d-26f6-4b80-a0eb-5e0e367eb956</t>
-  </si>
-  <si>
-    <t>16be8f2a-fea7-4399-a072-f14b95e5bbcb</t>
-  </si>
-  <si>
-    <t>64ffae06-b5be-4fe6-8489-666bc7d69c2d</t>
-  </si>
-  <si>
-    <t>c78d95d4-1924-4640-b72d-d79992cfd745</t>
-  </si>
-  <si>
-    <t>418c659b-74b4-4d63-aa53-91a4a0d75345</t>
-  </si>
-  <si>
-    <t>0ebd5dbe-30d2-4325-99fb-adea0f8387a0</t>
-  </si>
-  <si>
-    <t>82cded67-00e2-4e43-abf5-804fe7e94d00</t>
-  </si>
-  <si>
-    <t>58b899cf-2b25-42ed-96b2-6844ee5a6b1e</t>
-  </si>
-  <si>
-    <t>ec973301-2ec7-4649-b563-47ed63525557</t>
-  </si>
-  <si>
-    <t>c7c52297-f2fa-46ca-9fac-78b254513735</t>
-  </si>
-  <si>
-    <t>6d5494bc-c3d0-42f1-af24-f4311134de94</t>
-  </si>
-  <si>
-    <t>970a66e4-795e-4e77-9d56-f57f1fd52e04</t>
-  </si>
-  <si>
-    <t>f120f6fc-0d64-4bad-81ca-456dff1894b2</t>
-  </si>
-  <si>
-    <t>14b49a5d-feab-4e8d-9f35-e54ae532e597</t>
-  </si>
-  <si>
-    <t>eaf87922-0fc0-4165-a780-749fd0198129</t>
-  </si>
-  <si>
-    <t>6cc888ba-2fd1-4822-a07b-190cb53bb28d</t>
-  </si>
-  <si>
-    <t>b77e2b1f-718b-4d71-b8c0-0b2f5bcb2e93</t>
-  </si>
-  <si>
-    <t>d9ad6f39-6e3b-4e48-90fb-2382beffcbb5</t>
-  </si>
-  <si>
-    <t>dc828e18-3dc6-4050-a772-ec90a3967768</t>
-  </si>
-  <si>
-    <t>fababdfe-d7c4-41d9-9193-f51615ed0c0e</t>
-  </si>
-  <si>
-    <t>613cfb67-8a9c-4770-876b-22a293cc1041</t>
-  </si>
-  <si>
-    <t>29ae0e74-4c09-4916-a816-423376dee1d8</t>
-  </si>
-  <si>
-    <t>320d768d-2909-4134-ab07-3754c6103544</t>
-  </si>
-  <si>
-    <t>7d75b805-7a32-4780-bd6d-c4e3d390993a</t>
-  </si>
-  <si>
-    <t>2a678c0f-9dff-4d7d-a0a5-c521b197f341</t>
-  </si>
-  <si>
-    <t>2700a877-a19d-4b02-b4ce-8977474c82e3</t>
-  </si>
-  <si>
-    <t>6fe8db22-7a73-4c66-877c-3dcd336e8411</t>
-  </si>
-  <si>
-    <t>86e9956c-70d3-4f7a-87b0-2f86bce3a6c7</t>
-  </si>
-  <si>
-    <t>18edd5b6-07d1-4c8d-a3ef-b6e9f9e186c4</t>
-  </si>
-  <si>
-    <t>cf52728a-7a45-4384-9575-3ad74167d06f</t>
-  </si>
-  <si>
-    <t>0239f71b-815b-4be5-89cc-c776fa1f5a4a</t>
-  </si>
-  <si>
-    <t>14444cda-8a58-4f83-b832-0cd1152720bf</t>
-  </si>
-  <si>
-    <t>b4f07440-802d-45a9-b33e-fc0fa4b764ad</t>
-  </si>
-  <si>
-    <t>5337ebe5-0b08-410e-a707-3736eb864a1b</t>
-  </si>
-  <si>
-    <t>24eeb654-bd9a-4707-89b7-e8fea9d4ed57</t>
-  </si>
-  <si>
-    <t>01197368-7977-4eed-ac6d-30a3e346fa1f</t>
-  </si>
-  <si>
-    <t>b34231f2-90bf-404e-a964-3bcbd77f7992</t>
-  </si>
-  <si>
-    <t>311f3519-27be-4aab-8081-6ffb86c3b8d9</t>
-  </si>
-  <si>
-    <t>a2a18668-ca28-474e-b606-32089fbb6d57</t>
-  </si>
-  <si>
-    <t>9c1a004f-dc44-4787-b5cf-fb25b1f7bc82</t>
-  </si>
-  <si>
-    <t>5875c8f3-c3eb-4cc2-8fda-55425fc842ea</t>
-  </si>
-  <si>
-    <t>b7864796-c583-4734-a978-fc957aaee8a7</t>
-  </si>
-  <si>
-    <t>a418ace6-aa8d-47e1-a440-d16657285163</t>
-  </si>
-  <si>
-    <t>0ddf598d-1a0b-4b76-9982-48da8b21f20e</t>
-  </si>
-  <si>
-    <t>90207833-f446-47be-bb19-9706f09ab414</t>
-  </si>
-  <si>
-    <t>904f7a74-52d7-433f-bcf6-2a95fb58f6e6</t>
-  </si>
-  <si>
-    <t>68f42e84-ff2d-479e-bfa4-b20649330a1c</t>
-  </si>
-  <si>
-    <t>b783c538-08c3-429e-90ca-30a3b26f9dd8</t>
-  </si>
-  <si>
-    <t>e9d953cd-cd21-4509-89f3-274cfae8069c</t>
-  </si>
-  <si>
-    <t>96d7e1d3-5cf1-4093-98c9-1bacb3d3e51e</t>
-  </si>
-  <si>
-    <t>5330b13d-564d-4de1-850e-8e2ac23f6f13</t>
-  </si>
-  <si>
-    <t>dc22bcfb-e4ac-4281-b73e-0601c2d254fa</t>
-  </si>
-  <si>
-    <t>6c09661e-13e5-4113-aee6-b77e746e94da</t>
-  </si>
-  <si>
-    <t>91b67295-4539-4390-8fe1-bd516cb62355</t>
-  </si>
-  <si>
-    <t>64340ee0-0918-4497-9be4-09050cd9839f</t>
-  </si>
-  <si>
-    <t>e3047b54-2517-4b96-9810-5fd4c4d39c95</t>
-  </si>
-  <si>
-    <t>944e5ee7-62b0-482f-a558-17315f56ac8e</t>
-  </si>
-  <si>
-    <t>bb748a82-f52f-4fef-9b49-a594296ba3c7</t>
-  </si>
-  <si>
-    <t>648dbc43-9376-4583-a2c7-049037ae42e6</t>
-  </si>
-  <si>
-    <t>cbd24849-b1ad-42e6-8b4d-25ab207aa3b8</t>
-  </si>
-  <si>
-    <t>211fdaa2-e387-4476-b776-d4917d5276a3</t>
-  </si>
-  <si>
-    <t>f7d0848a-ceb4-4af4-9172-2eaa64697cbe</t>
-  </si>
-  <si>
-    <t>f53dc682-69d5-4a63-80db-8138c9ab86c7</t>
-  </si>
-  <si>
-    <t>02a3bb79-de7d-40c3-aeef-4035e0df4369</t>
-  </si>
-  <si>
-    <t>03b8736b-b388-4bed-9bc5-2b01ab00ad1e</t>
-  </si>
-  <si>
-    <t>8238abc2-2227-4666-a550-72fdb26ce660</t>
-  </si>
-  <si>
-    <t>07fbfb7c-04b5-45c8-8a48-5b1d8f59c317</t>
-  </si>
-  <si>
-    <t>f86d1cd6-df7b-4e1c-8742-e91eaddf4c83</t>
-  </si>
-  <si>
-    <t>2b621cab-14c1-43f5-b767-5ff3f497be40</t>
-  </si>
-  <si>
-    <t>5806af60-9037-43be-984a-bcb8abcc8bf6</t>
-  </si>
-  <si>
-    <t>35bf915e-7371-4c93-8de7-f7c1d14d261e</t>
-  </si>
-  <si>
-    <t>4c11bb15-c8c3-4993-afd4-f4f75beaa140</t>
-  </si>
-  <si>
-    <t>bb91d678-db2e-4269-ae3a-0864096ebdc1</t>
-  </si>
-  <si>
-    <t>9d19b10c-e8ea-4a5d-988a-efb2738be9be</t>
-  </si>
-  <si>
-    <t>cc3f685b-475e-4e7d-b298-69c267469387</t>
-  </si>
-  <si>
-    <t>f6973ae6-dd1c-4b96-8cb8-831c36a0413d</t>
-  </si>
-  <si>
-    <t>3a12d1af-274e-487c-b5bb-edd536ca203c</t>
-  </si>
-  <si>
-    <t>4a07f256-cffd-49ab-b8b9-d7098fff4320</t>
-  </si>
-  <si>
-    <t>cd023dee-41cc-4416-837f-4607193bb2d0</t>
-  </si>
-  <si>
-    <t>2fdd48b7-85ac-44e8-adb1-620df6238fc0</t>
-  </si>
-  <si>
-    <t>d260806e-b94c-4943-83a8-c728c2c42284</t>
-  </si>
-  <si>
-    <t>260f8f06-2f91-498c-866a-b1c121ee292f</t>
-  </si>
-  <si>
-    <t>74301428-dbca-4f65-a7b3-189fe2b236d6</t>
-  </si>
-  <si>
-    <t>77edf8f9-9924-411f-a573-0be86df8c3c0</t>
-  </si>
-  <si>
-    <t>23ff0511-b6d9-43ae-9a8f-46c651506348</t>
-  </si>
-  <si>
-    <t>12765a01-f3a6-4271-8468-a438f55ab2e3</t>
-  </si>
-  <si>
-    <t>a599a4cc-bd17-4136-b7a7-37a65edea0cb</t>
-  </si>
-  <si>
-    <t>313ef345-88d4-40f9-89d7-06112b32ce57</t>
-  </si>
-  <si>
-    <t>b5e58990-e5c7-482d-8181-084322343848</t>
+    <t>96f624be-2108-497c-9b37-024d7709b266</t>
+  </si>
+  <si>
+    <t>c4feb5f7-a15f-44e2-b939-62ffa814feae</t>
+  </si>
+  <si>
+    <t>6d56ab94-d998-4f64-80b8-3f65ed9beb83</t>
+  </si>
+  <si>
+    <t>580d6096-5c71-47be-a6e7-03cf673e2acf</t>
+  </si>
+  <si>
+    <t>5b0dbc3d-dbfc-45fd-bb4d-1550e0b965e4</t>
+  </si>
+  <si>
+    <t>d79e82d1-76a4-4690-9f7f-48a20b2622af</t>
+  </si>
+  <si>
+    <t>7c4ae598-ff41-49c9-b469-76169b311770</t>
+  </si>
+  <si>
+    <t>9015d5fe-d9d8-4f4a-a86a-4a5f3e951eb3</t>
+  </si>
+  <si>
+    <t>385e4736-5c4b-4676-8559-87010c58dffb</t>
+  </si>
+  <si>
+    <t>ae08ef2f-fc07-4a3d-ae64-3dbbb6b8a15f</t>
+  </si>
+  <si>
+    <t>3f61116b-95c9-402b-9817-7c64801619e5</t>
+  </si>
+  <si>
+    <t>87e9eb9c-4ea5-40dc-8378-6fff6de41e8b</t>
+  </si>
+  <si>
+    <t>b44727fd-ef06-4e1b-89b7-e505e2a0d735</t>
+  </si>
+  <si>
+    <t>ffcadeba-a4f9-489b-bef4-2fc4977da14e</t>
+  </si>
+  <si>
+    <t>466d835b-6e61-4214-8cc4-9b2ff3a96dc2</t>
+  </si>
+  <si>
+    <t>2d65a332-d7d0-4bd2-9422-8a92e8fdc692</t>
+  </si>
+  <si>
+    <t>1fcf6466-cb75-4d07-9f43-08e642c64950</t>
+  </si>
+  <si>
+    <t>185bba11-9611-4632-99af-16b3e3d61596</t>
+  </si>
+  <si>
+    <t>981c8225-3cff-4520-b939-d2df3fc1b256</t>
+  </si>
+  <si>
+    <t>ac81fec5-d0a1-401f-bb8c-628b94ea8abf</t>
+  </si>
+  <si>
+    <t>35144a34-f996-492b-8382-9c125e1ed203</t>
+  </si>
+  <si>
+    <t>92633207-759b-43ac-879d-b13edef93618</t>
+  </si>
+  <si>
+    <t>1e913d21-4a71-42da-a080-37eea31b7cd1</t>
+  </si>
+  <si>
+    <t>778a0d9a-fe25-4d85-81d3-3369e46ee7c0</t>
+  </si>
+  <si>
+    <t>39fb3cd2-69b9-4146-b15a-acebd64dbafd</t>
+  </si>
+  <si>
+    <t>b559b5e0-83f5-4e74-b77b-ec624b538b2f</t>
+  </si>
+  <si>
+    <t>37e86df9-734a-491f-93aa-2b25d7a6b4af</t>
+  </si>
+  <si>
+    <t>86a6168a-3df9-45b8-b214-e687e73a7d44</t>
+  </si>
+  <si>
+    <t>fc1a50c5-9703-4507-8283-28948c64f935</t>
+  </si>
+  <si>
+    <t>ff922149-a575-41d9-a9ce-dd2b75333cf6</t>
+  </si>
+  <si>
+    <t>3c50abc7-0f7a-414b-b7b4-1c3269b42472</t>
+  </si>
+  <si>
+    <t>8d30a663-3a20-4b6c-af91-eb0ba05febd2</t>
+  </si>
+  <si>
+    <t>79b3498f-d12e-42c0-ae6a-3c3eba8bdbf7</t>
+  </si>
+  <si>
+    <t>a8c4cd7a-1dbd-41cb-bc2a-9d47f922bd03</t>
+  </si>
+  <si>
+    <t>1e61d4b6-18b6-46f5-b1a5-2d58655b28e3</t>
+  </si>
+  <si>
+    <t>7752657e-3045-47d9-b90a-2fce5ca7fb4a</t>
+  </si>
+  <si>
+    <t>e0d13620-4a6d-43be-8e51-87c60a6786e7</t>
+  </si>
+  <si>
+    <t>3282abcb-895b-46a6-86ff-29b10cd20782</t>
+  </si>
+  <si>
+    <t>e72bbcd8-82e8-4ac9-b6b5-5f70fe2b2bcb</t>
+  </si>
+  <si>
+    <t>48cdd7f1-4cf3-4307-9b83-0ceea5c5718d</t>
+  </si>
+  <si>
+    <t>b465027b-fd25-43e5-b7e6-4b7c01ea4069</t>
+  </si>
+  <si>
+    <t>9dc32636-5031-4f0c-bc5a-cb43e8fb2316</t>
+  </si>
+  <si>
+    <t>aab488ed-571a-47ea-8c66-49b8986c9583</t>
+  </si>
+  <si>
+    <t>3e357d9c-9e39-4aea-bbbe-d7cd80cd90fd</t>
+  </si>
+  <si>
+    <t>0d477e99-999d-461c-82d8-0a36a31ad0d9</t>
+  </si>
+  <si>
+    <t>63b34123-609c-47f4-b146-4b480e7e223e</t>
+  </si>
+  <si>
+    <t>a2d9506b-39ab-4779-be9e-9c695c8d8bcf</t>
+  </si>
+  <si>
+    <t>3359a727-84af-4a52-8d4a-487e5b157a43</t>
+  </si>
+  <si>
+    <t>c6256fd8-d113-4ebc-b887-723d5c1652db</t>
+  </si>
+  <si>
+    <t>3053e712-c183-4b40-b7d5-4107668964e8</t>
+  </si>
+  <si>
+    <t>1dd0721c-65ec-4246-aa64-5fbec16868c9</t>
+  </si>
+  <si>
+    <t>3d2d30b5-2bbb-42a6-bcd3-64fe9cd8d05f</t>
+  </si>
+  <si>
+    <t>aad32375-24db-4f94-bdf3-4e661bc64a36</t>
+  </si>
+  <si>
+    <t>473e8b70-ce24-4d09-9b9b-6a141782ef7f</t>
+  </si>
+  <si>
+    <t>07fece1f-00c5-4a82-bee0-41ba39e8ade2</t>
+  </si>
+  <si>
+    <t>def1a0f1-7bb0-4bab-a529-ad7e8b9f8ae4</t>
+  </si>
+  <si>
+    <t>cbd764fb-88db-4a4f-961e-842d21b3a100</t>
+  </si>
+  <si>
+    <t>4badca49-9cc5-4fd1-ab27-b383bc739432</t>
+  </si>
+  <si>
+    <t>dccd1ba3-d131-4d80-b9b1-fe8900c2a7b8</t>
+  </si>
+  <si>
+    <t>b3fe5853-6d2e-4e82-b2e5-79e22aec420c</t>
+  </si>
+  <si>
+    <t>a1da2ff3-e16e-4247-8c15-6ebbd39ab119</t>
+  </si>
+  <si>
+    <t>9017c8e7-3155-4103-8871-ff2fe4c80e0d</t>
+  </si>
+  <si>
+    <t>8c877206-c249-479a-8d11-917b0ff2c857</t>
+  </si>
+  <si>
+    <t>b9852c80-e645-4ce4-b3dd-3033964c4adf</t>
+  </si>
+  <si>
+    <t>f213fa84-6772-4f41-aae7-5a9cdddeef87</t>
+  </si>
+  <si>
+    <t>d41caf08-7eb9-493f-8d64-fb85426aea69</t>
+  </si>
+  <si>
+    <t>780f85e9-fcb0-469e-92ea-4bf0f6d94846</t>
+  </si>
+  <si>
+    <t>db1037a9-1d5d-4969-a736-55d9df894737</t>
+  </si>
+  <si>
+    <t>295e476a-e819-47b3-8a50-c13005adf979</t>
+  </si>
+  <si>
+    <t>e5ab5915-7dcc-4a8a-809a-3e778aebc3c0</t>
+  </si>
+  <si>
+    <t>59f05a04-4fa2-4938-a134-d88c045a5832</t>
+  </si>
+  <si>
+    <t>549a9211-78c2-43e9-9abd-db26542658c8</t>
+  </si>
+  <si>
+    <t>a399b945-5e56-40aa-8746-ec91c33e0303</t>
+  </si>
+  <si>
+    <t>40caa462-2e64-40a9-bbe9-9515d155f153</t>
+  </si>
+  <si>
+    <t>f207ff96-2476-4e04-9459-e06cc329596e</t>
+  </si>
+  <si>
+    <t>303c6093-37e1-4c6d-93ad-5817ba95bf94</t>
+  </si>
+  <si>
+    <t>a69796bf-d7bb-4e93-bb6a-9eb2eb6a05ed</t>
+  </si>
+  <si>
+    <t>bbbcdb20-afdc-4ebb-a05d-722d419cf884</t>
+  </si>
+  <si>
+    <t>6d76165f-63e5-415f-9875-64163d995aa2</t>
+  </si>
+  <si>
+    <t>2a2cc1a7-6a42-4afd-afcd-50936b5fce48</t>
+  </si>
+  <si>
+    <t>0924b801-929e-49f1-a46c-aa2c91138a81</t>
+  </si>
+  <si>
+    <t>6135f166-e24d-4b8f-b41b-f19aba9ee270</t>
+  </si>
+  <si>
+    <t>98cedfca-a82c-4be7-a13e-704f75299de6</t>
+  </si>
+  <si>
+    <t>56c2a41e-e909-407e-9688-b5ffe085ed1a</t>
+  </si>
+  <si>
+    <t>3b07efa8-9ade-48c3-b36f-b46f0225d525</t>
+  </si>
+  <si>
+    <t>1c22d860-2895-4849-b021-6e35b5a3f6ff</t>
+  </si>
+  <si>
+    <t>dad982ae-f322-415d-b2f0-622c3b1891ea</t>
+  </si>
+  <si>
+    <t>47fcd1d9-2ee9-4231-9c1f-bc9dd4c6f73c</t>
+  </si>
+  <si>
+    <t>b079e73a-ada1-4884-abd6-52d2aab4b493</t>
+  </si>
+  <si>
+    <t>a1ec50d1-3652-4c34-a3cf-06fb668fe3cf</t>
+  </si>
+  <si>
+    <t>92d4376f-f18f-4df8-a202-d54500b56a63</t>
+  </si>
+  <si>
+    <t>8daa3a8b-e5ff-47a1-9f28-1e7f190c4534</t>
+  </si>
+  <si>
+    <t>a18637fb-2154-42d9-ad84-48231521c039</t>
+  </si>
+  <si>
+    <t>eaad43d9-90ad-4cc0-be96-fc8785e8719d</t>
+  </si>
+  <si>
+    <t>5391a93f-9647-44db-8022-1880c0a36b22</t>
+  </si>
+  <si>
+    <t>82f96d6e-3c40-4965-b8aa-7f18cfc9a875</t>
+  </si>
+  <si>
+    <t>2041d5da-155c-46f0-ab85-c0b3b16f5d4b</t>
+  </si>
+  <si>
+    <t>0c2c3088-d082-4aeb-bf32-5d2ce3dde2b8</t>
+  </si>
+  <si>
+    <t>06ce92d8-43d5-42d2-a2d1-6ae0b4529c55</t>
+  </si>
+  <si>
+    <t>00cdcd0a-f1e9-4e2a-9104-1bc30eaf3c38</t>
   </si>
 </sst>
 </file>
